--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seyoonpark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09EBB845-3532-475E-9BAB-EE58E7A1995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EF85C1-3E1D-444D-A721-3DF0751944D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{055031BE-45D4-4807-AAA7-CAE388B4B0B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Post-Optimisation" sheetId="1" r:id="rId1"/>
+    <sheet name="Pre-Optimisation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$101</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>% saved</t>
   </si>
@@ -149,7 +144,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SCAN vs GA</a:t>
+              <a:t>SCAN vs GA Post-Optimisation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -194,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>'Post-Optimisation'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -213,325 +208,313 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>'Post-Optimisation'!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1999200</c:v>
+                  <c:v>3079800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>678000</c:v>
+                  <c:v>1881600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1650600</c:v>
+                  <c:v>4031400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3418200</c:v>
+                  <c:v>3060600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3020400</c:v>
+                  <c:v>4314000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3198600</c:v>
+                  <c:v>1968600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2840400</c:v>
+                  <c:v>2994000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3138600</c:v>
+                  <c:v>3442200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1612200</c:v>
+                  <c:v>3520800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3384600</c:v>
+                  <c:v>4083600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2269200</c:v>
+                  <c:v>3379800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3018600</c:v>
+                  <c:v>2464800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4131000</c:v>
+                  <c:v>2806200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1219800</c:v>
+                  <c:v>3291600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>185400</c:v>
+                  <c:v>3778200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2085000</c:v>
+                  <c:v>3171000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3185400</c:v>
+                  <c:v>3690600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2866200</c:v>
+                  <c:v>3137400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2978400</c:v>
+                  <c:v>1694400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2215800</c:v>
+                  <c:v>2673600</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1962600</c:v>
+                  <c:v>2506800</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2826600</c:v>
+                  <c:v>1799400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3567600</c:v>
+                  <c:v>3854400</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2047800</c:v>
+                  <c:v>4290600</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3301800</c:v>
+                  <c:v>3673800</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3457200</c:v>
+                  <c:v>3826800</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1354200</c:v>
+                  <c:v>3836400</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2668800</c:v>
+                  <c:v>3112200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2713800</c:v>
+                  <c:v>3751800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3407400</c:v>
+                  <c:v>1167000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3501000</c:v>
+                  <c:v>1943400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2807400</c:v>
+                  <c:v>2980200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4480200</c:v>
+                  <c:v>4039800</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3937200</c:v>
+                  <c:v>1334400</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1481400</c:v>
+                  <c:v>3656400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2977200</c:v>
+                  <c:v>1610400</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3790200</c:v>
+                  <c:v>3259800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1159800</c:v>
+                  <c:v>3457800</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2936400</c:v>
+                  <c:v>2922600</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>3280200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1763400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3163800</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2424000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3023400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2177400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3528600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3201600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2664000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2617800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3971400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4128600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2688000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3115200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2941800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2604600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3774600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3208800</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3267000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3774000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2353800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2265600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2862600</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3091200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3118200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3864000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2479800</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3101400</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3685800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3853200</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3849600</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1525200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3580800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3733200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4098000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3259200</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3375600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3372600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3735000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3838200</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3767400</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4019400</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3229200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>932400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3390000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3689400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3394200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4012200</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3131400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4088400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4421400</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2620200</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>2979600</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3363000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4192800</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2722200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3217200</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2770800</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4078800</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1654200</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2112000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3207600</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2788200</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3763200</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3744000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2279400</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3146400</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3580200</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3349200</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2427600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2113200</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2536800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2194200</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2703600</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2865000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3151200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1779600</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3466200</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="92">
+                  <c:v>1839600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3181800</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1423200</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2433600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2902200</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>3867000</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>3177000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2754000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4143000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1126800</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3465600</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2490600</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1361400</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1786800</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3775800</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3170400</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3161400</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3364800</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2851800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2904000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2403600</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2027400</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>803400</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3961200</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3111600</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2907000</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2871000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2572200</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3198000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3117600</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3057600</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3245400</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3165000</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3281400</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2401800</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3091200</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2368800</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3099000</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>3263400</c:v>
+                  <c:v>2740800</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1030800</c:v>
+                  <c:v>2712600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,7 +522,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EAC-4E76-9E9A-A632C046E1C4}"/>
+              <c16:uniqueId val="{00000000-CA93-4130-B52E-45BDC4AC8B89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -548,7 +531,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Post-Optimisation'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,325 +550,313 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:f>'Post-Optimisation'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1959600</c:v>
+                  <c:v>3079800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>678000</c:v>
+                  <c:v>1881600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1650600</c:v>
+                  <c:v>4027800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2701800</c:v>
+                  <c:v>3060600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1784400</c:v>
+                  <c:v>4281600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2375400</c:v>
+                  <c:v>1276200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2797200</c:v>
+                  <c:v>2914800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2559000</c:v>
+                  <c:v>3413400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1608600</c:v>
+                  <c:v>3517200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3366600</c:v>
+                  <c:v>4065600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2240400</c:v>
+                  <c:v>2577000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2721000</c:v>
+                  <c:v>2439600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3297000</c:v>
+                  <c:v>2350200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>863400</c:v>
+                  <c:v>2224800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>185400</c:v>
+                  <c:v>3771000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2085000</c:v>
+                  <c:v>3167400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2670600</c:v>
+                  <c:v>3654600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2704200</c:v>
+                  <c:v>3029400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2902800</c:v>
+                  <c:v>1694400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2215800</c:v>
+                  <c:v>2626800</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1944600</c:v>
+                  <c:v>2506800</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2754600</c:v>
+                  <c:v>1795800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2920800</c:v>
+                  <c:v>3847200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2008200</c:v>
+                  <c:v>4287000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3247800</c:v>
+                  <c:v>2482200</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3370800</c:v>
+                  <c:v>3816000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1354200</c:v>
+                  <c:v>2946000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2632800</c:v>
+                  <c:v>3101400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2565000</c:v>
+                  <c:v>3744600</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3215400</c:v>
+                  <c:v>1167000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3396600</c:v>
+                  <c:v>1943400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2785800</c:v>
+                  <c:v>2980200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2983800</c:v>
+                  <c:v>4039800</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3261600</c:v>
+                  <c:v>1334400</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1481400</c:v>
+                  <c:v>3656400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2966400</c:v>
+                  <c:v>1610400</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2673000</c:v>
+                  <c:v>2147400</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>679800</c:v>
+                  <c:v>3454200</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2835600</c:v>
+                  <c:v>2911800</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3038400</c:v>
+                  <c:v>3262200</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3015000</c:v>
+                  <c:v>1763400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3991200</c:v>
+                  <c:v>2887800</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2297400</c:v>
+                  <c:v>2424000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3174000</c:v>
+                  <c:v>3012600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2716800</c:v>
+                  <c:v>2155800</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3378000</c:v>
+                  <c:v>3525000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1647000</c:v>
+                  <c:v>3201600</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2108400</c:v>
+                  <c:v>2646000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3223200</c:v>
+                  <c:v>2610600</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2604600</c:v>
+                  <c:v>3946200</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3231600</c:v>
+                  <c:v>4110600</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3700800</c:v>
+                  <c:v>2670000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1961400</c:v>
+                  <c:v>3111600</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2352000</c:v>
+                  <c:v>2941800</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3367800</c:v>
+                  <c:v>2579400</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3649200</c:v>
+                  <c:v>3760200</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2041200</c:v>
+                  <c:v>3154800</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1999200</c:v>
+                  <c:v>3249000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2468400</c:v>
+                  <c:v>3752400</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2194200</c:v>
+                  <c:v>2353800</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2698800</c:v>
+                  <c:v>2258400</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2742600</c:v>
+                  <c:v>2862600</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3140400</c:v>
+                  <c:v>1724400</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1779600</c:v>
+                  <c:v>3118200</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3351000</c:v>
+                  <c:v>3835200</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2760600</c:v>
+                  <c:v>2379000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3148200</c:v>
+                  <c:v>3083400</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2710800</c:v>
+                  <c:v>3653400</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3180600</c:v>
+                  <c:v>3824400</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1116000</c:v>
+                  <c:v>3397200</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2666400</c:v>
+                  <c:v>1525200</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1830600</c:v>
+                  <c:v>3555600</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1361400</c:v>
+                  <c:v>3722400</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1779600</c:v>
+                  <c:v>4094400</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2884200</c:v>
+                  <c:v>3244800</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3130800</c:v>
+                  <c:v>3346800</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2989800</c:v>
+                  <c:v>3347400</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2438400</c:v>
+                  <c:v>3695400</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2686200</c:v>
+                  <c:v>3823800</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2904000</c:v>
+                  <c:v>3767400</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2367600</c:v>
+                  <c:v>3990600</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1966200</c:v>
+                  <c:v>3218400</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>803400</c:v>
+                  <c:v>921600</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3543600</c:v>
+                  <c:v>3379200</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2978400</c:v>
+                  <c:v>3678600</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3095400</c:v>
+                  <c:v>3387000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2781000</c:v>
+                  <c:v>4001400</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2431800</c:v>
+                  <c:v>3109800</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3225600</c:v>
+                  <c:v>4063200</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3038400</c:v>
+                  <c:v>4410600</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2953200</c:v>
+                  <c:v>2616600</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3205800</c:v>
+                  <c:v>2940000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2743800</c:v>
+                  <c:v>1836000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3205800</c:v>
+                  <c:v>3145800</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2226600</c:v>
+                  <c:v>1419600</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3069600</c:v>
+                  <c:v>2026800</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1622400</c:v>
+                  <c:v>2895000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3281400</c:v>
+                  <c:v>3867000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3263400</c:v>
+                  <c:v>2422800</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1030800</c:v>
+                  <c:v>2709000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,7 +864,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1EAC-4E76-9E9A-A632C046E1C4}"/>
+              <c16:uniqueId val="{00000001-CA93-4130-B52E-45BDC4AC8B89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -905,13 +876,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="956148072"/>
-        <c:axId val="956149872"/>
+        <c:axId val="779897776"/>
+        <c:axId val="779898136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="956148072"/>
+        <c:axId val="779897776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956149872"/>
+        <c:crossAx val="779898136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="956149872"/>
+        <c:axId val="779898136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,11 +1027,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Energy Consumed </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> / J</a:t>
+                  <a:t>Energy Consumed / J</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1126,7 +1092,1082 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956148072"/>
+        <c:crossAx val="779897776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SCAN vs GA  Pre-Optimisation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pre-Optimisation'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCAN / J</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pre-Optimisation'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2424600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3041400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2307000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4048200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2568600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2751000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4212000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2697600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2188200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1557600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3145200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2761200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3473400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2545200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3148800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3132000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2353800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1624800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3845400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2802600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4339800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3259800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4323000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2335800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3918600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4024800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3195600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2995800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2085000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1170600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3785400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3469800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3018000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2827800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2772600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3315600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3109800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>679800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3681000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3024000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3479400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3100800</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3903000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2739000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3798600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3930000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2805600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3289800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3010200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1621200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3090000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2495400</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3430200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1352400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>925200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4385400</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2048400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3658200</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>374400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2914800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2166600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3474000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3411000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3625200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3689400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4068000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4440600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3183000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4247400</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3099600</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3246600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2938800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4105800</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3523200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2760000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>241800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3082800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3304800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3553800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3004200</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2884200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3381000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4274400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4009800</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3221400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1025400</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3109200</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3306000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3206400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>781800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3997200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2066400</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3351600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3456600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1681200</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2948400</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4152600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4001400</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1948200</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4131600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF13-4A66-AE54-04E41E9B462A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pre-Optimisation'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GA / J</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pre-Optimisation'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2410200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2857800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3079800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6465000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2550600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2718600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4626000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3260400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2163000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1546800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3103200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2761200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2559000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2305200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5505600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2532000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2346600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1232400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6899400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2184600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7605000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3058200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5190600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2116200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3553800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5280000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2617200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3257400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2085000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1170600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4449000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2919000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2776800</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2817000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2686200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3211200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2979000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>679800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6583800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4394400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4895400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2982000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5224200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3088200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3210600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7136400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2983200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6414600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2877000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1585200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4822800</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2233800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6245400</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1352400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>925200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7577400</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1966800</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7837800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>374400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2842800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2653800</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2493600</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4667400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4023600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5241000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4003200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7195800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7239000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3597000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4831200</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4516200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3277200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6293400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6444000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2688000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>241800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2602800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4162800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3223800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2466600</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2413800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2969400</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3688800</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3498600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6382200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1025400</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3048000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4824000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3888000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>781800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3121200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2034000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3229200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4507800</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1648800</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2847600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5783400</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7277400</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1439400</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6369600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF13-4A66-AE54-04E41E9B462A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="906866896"/>
+        <c:axId val="906870856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="906866896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906870856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="906870856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> / J</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906866896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1253,8 +2294,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1362,6 +2443,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1372,6 +2458,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1403,6 +2494,525 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1760,23 +3370,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>10894</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>174950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144210</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53066</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12938</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167355</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3773EB4-A2BB-25F0-AFA8-4F480035316A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A211B40-0DF9-10B8-94D1-AEE93860126C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>435768</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473868</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A7053E-7C06-3478-49C6-103DC1B25170}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +3768,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2138,26 +3789,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1999200</v>
+        <v>3079800</v>
       </c>
       <c r="B2">
-        <v>1959600</v>
+        <v>3079800</v>
       </c>
       <c r="C2">
         <f>D2/A2*100</f>
-        <v>1.9807923169267705</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>A2-B2</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>678000</v>
+        <v>1881600</v>
       </c>
       <c r="B3">
-        <v>678000</v>
+        <v>1881600</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">D3/A3*100</f>
@@ -2170,110 +3821,110 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1650600</v>
+        <v>4031400</v>
       </c>
       <c r="B4">
-        <v>1650600</v>
+        <v>4027800</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.929900282780176E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>3418200</v>
+        <v>3060600</v>
       </c>
       <c r="B5">
-        <v>2701800</v>
+        <v>3060600</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>20.958399157451289</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>716400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3020400</v>
+        <v>4314000</v>
       </c>
       <c r="B6">
-        <v>1784400</v>
+        <v>4281600</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>40.921732220897894</v>
+        <v>0.75104311543810853</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1236000</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>3198600</v>
+        <v>1968600</v>
       </c>
       <c r="B7">
-        <v>2375400</v>
+        <v>1276200</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>25.736259613580941</v>
+        <v>35.172203596464492</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>823200</v>
+        <v>692400</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2840400</v>
+        <v>2994000</v>
       </c>
       <c r="B8">
-        <v>2797200</v>
+        <v>2914800</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.520912547528517</v>
+        <v>2.6452905811623246</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>43200</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>3138600</v>
+        <v>3442200</v>
       </c>
       <c r="B9">
-        <v>2559000</v>
+        <v>3413400</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>18.466832345631808</v>
+        <v>0.83667421997559699</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>579600</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>1612200</v>
+        <v>3520800</v>
       </c>
       <c r="B10">
-        <v>1608600</v>
+        <v>3517200</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.22329735764793449</v>
+        <v>0.10224948875255625</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -2282,14 +3933,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3384600</v>
+        <v>4083600</v>
       </c>
       <c r="B11">
-        <v>3366600</v>
+        <v>4065600</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.53182059918454172</v>
+        <v>0.44078754040552454</v>
       </c>
       <c r="D11">
         <f>A11-B11</f>
@@ -2298,146 +3949,146 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>2269200</v>
+        <v>3379800</v>
       </c>
       <c r="B12">
-        <v>2240400</v>
+        <v>2577000</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.269169751454257</v>
+        <v>23.752884786082017</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D75" si="2">A12-B12</f>
-        <v>28800</v>
+        <v>802800</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>3018600</v>
+        <v>2464800</v>
       </c>
       <c r="B13">
-        <v>2721000</v>
+        <v>2439600</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>9.8588749751540448</v>
+        <v>1.0223953261927945</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>297600</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>4131000</v>
+        <v>2806200</v>
       </c>
       <c r="B14">
-        <v>3297000</v>
+        <v>2350200</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>20.188816267247638</v>
+        <v>16.24973273465897</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>834000</v>
+        <v>456000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1219800</v>
+        <v>3291600</v>
       </c>
       <c r="B15">
-        <v>863400</v>
+        <v>2224800</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>29.217904574520414</v>
+        <v>32.409770324462265</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>356400</v>
+        <v>1066800</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>185400</v>
+        <v>3778200</v>
       </c>
       <c r="B16">
-        <v>185400</v>
+        <v>3771000</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19056693663649357</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2085000</v>
+        <v>3171000</v>
       </c>
       <c r="B17">
-        <v>2085000</v>
+        <v>3167400</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11352885525070955</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3185400</v>
+        <v>3690600</v>
       </c>
       <c r="B18">
-        <v>2670600</v>
+        <v>3654600</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>16.161235637596537</v>
+        <v>0.97545114615509676</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>514800</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>2866200</v>
+        <v>3137400</v>
       </c>
       <c r="B19">
-        <v>2704200</v>
+        <v>3029400</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>5.6520828972158261</v>
+        <v>3.4423407917383817</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>162000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>2978400</v>
+        <v>1694400</v>
       </c>
       <c r="B20">
-        <v>2902800</v>
+        <v>1694400</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.5382755842062852</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>75600</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -2445,54 +4096,54 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>2215800</v>
+        <v>2673600</v>
       </c>
       <c r="B21">
-        <v>2215800</v>
+        <v>2626800</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7504488330341115</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="G21">
         <f>AVERAGE(C2:C101)</f>
-        <v>7.4972872159348478</v>
+        <v>3.3362381906531082</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1962600</v>
+        <v>2506800</v>
       </c>
       <c r="B22">
-        <v>1944600</v>
+        <v>2506800</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.91715071843472951</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2826600</v>
+        <v>1799400</v>
       </c>
       <c r="B23">
-        <v>2754600</v>
+        <v>1795800</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2.5472298874973465</v>
+        <v>0.20006668889629878</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>3600</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -2500,206 +4151,206 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3567600</v>
+        <v>3854400</v>
       </c>
       <c r="B24">
-        <v>2920800</v>
+        <v>3847200</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>18.129835183316516</v>
+        <v>0.18679950186799502</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>646800</v>
+        <v>7200</v>
       </c>
       <c r="G24">
         <f>SUM(D2:D101)</f>
-        <v>23299200</v>
+        <v>10382400</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2047800</v>
+        <v>4290600</v>
       </c>
       <c r="B25">
-        <v>2008200</v>
+        <v>4287000</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.9337825959566364</v>
+        <v>8.3904349042092013E-2</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>39600</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3301800</v>
+        <v>3673800</v>
       </c>
       <c r="B26">
-        <v>3247800</v>
+        <v>2482200</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1.6354715609667454</v>
+        <v>32.435080842724155</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>54000</v>
+        <v>1191600</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3457200</v>
+        <v>3826800</v>
       </c>
       <c r="B27">
-        <v>3370800</v>
+        <v>3816000</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>2.4991322457480045</v>
+        <v>0.28222013170272814</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>86400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1354200</v>
+        <v>3836400</v>
       </c>
       <c r="B28">
-        <v>1354200</v>
+        <v>2946000</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.20925868001251</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>890400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>2668800</v>
+        <v>3112200</v>
       </c>
       <c r="B29">
-        <v>2632800</v>
+        <v>3101400</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>1.3489208633093526</v>
+        <v>0.34702139965297862</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>36000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>2713800</v>
+        <v>3751800</v>
       </c>
       <c r="B30">
-        <v>2565000</v>
+        <v>3744600</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>5.4830864470484197</v>
+        <v>0.19190788421557653</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>148800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>3407400</v>
+        <v>1167000</v>
       </c>
       <c r="B31">
-        <v>3215400</v>
+        <v>1167000</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>5.6347948582496921</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>192000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>3501000</v>
+        <v>1943400</v>
       </c>
       <c r="B32">
-        <v>3396600</v>
+        <v>1943400</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>2.982005141388175</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>104400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>2807400</v>
+        <v>2980200</v>
       </c>
       <c r="B33">
-        <v>2785800</v>
+        <v>2980200</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.76939516990810009</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>21600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>4480200</v>
+        <v>4039800</v>
       </c>
       <c r="B34">
-        <v>2983800</v>
+        <v>4039800</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>33.400294629704028</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>1496400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3937200</v>
+        <v>1334400</v>
       </c>
       <c r="B35">
-        <v>3261600</v>
+        <v>1334400</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>17.159402621152086</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>675600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1481400</v>
+        <v>3656400</v>
       </c>
       <c r="B36">
-        <v>1481400</v>
+        <v>3656400</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -2712,394 +4363,394 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2977200</v>
+        <v>1610400</v>
       </c>
       <c r="B37">
-        <v>2966400</v>
+        <v>1610400</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.36275695284159615</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>3790200</v>
+        <v>3259800</v>
       </c>
       <c r="B38">
-        <v>2673000</v>
+        <v>2147400</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>29.47601709672313</v>
+        <v>34.124792932081718</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>1117200</v>
+        <v>1112400</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1159800</v>
+        <v>3457800</v>
       </c>
       <c r="B39">
-        <v>679800</v>
+        <v>3454200</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>41.386445938954992</v>
+        <v>0.10411244143675169</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>480000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2936400</v>
+        <v>2922600</v>
       </c>
       <c r="B40">
-        <v>2835600</v>
+        <v>2911800</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>3.4327748263179401</v>
+        <v>0.36953397659618148</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>100800</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2979600</v>
+        <v>3280200</v>
       </c>
       <c r="B41">
-        <v>3038400</v>
+        <v>3262200</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>-1.9734192509061621</v>
+        <v>0.54874702762026706</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>-58800</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>3363000</v>
+        <v>1763400</v>
       </c>
       <c r="B42">
-        <v>3015000</v>
+        <v>1763400</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>10.347903657448706</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>348000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>4192800</v>
+        <v>3163800</v>
       </c>
       <c r="B43">
-        <v>3991200</v>
+        <v>2887800</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>4.8082427017744704</v>
+        <v>8.7236867058600414</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>201600</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>2722200</v>
+        <v>2424000</v>
       </c>
       <c r="B44">
-        <v>2297400</v>
+        <v>2424000</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>15.605025347145689</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>424800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>3217200</v>
+        <v>3023400</v>
       </c>
       <c r="B45">
-        <v>3174000</v>
+        <v>3012600</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>1.3427825438269303</v>
+        <v>0.35721373288350861</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>43200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>2770800</v>
+        <v>2177400</v>
       </c>
       <c r="B46">
-        <v>2716800</v>
+        <v>2155800</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>1.9488956258120398</v>
+        <v>0.9920088178561588</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>54000</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>4078800</v>
+        <v>3528600</v>
       </c>
       <c r="B47">
-        <v>3378000</v>
+        <v>3525000</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>17.181523977640484</v>
+        <v>0.10202346539704132</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>700800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1654200</v>
+        <v>3201600</v>
       </c>
       <c r="B48">
-        <v>1647000</v>
+        <v>3201600</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.43525571273122959</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>2112000</v>
+        <v>2664000</v>
       </c>
       <c r="B49">
-        <v>2108400</v>
+        <v>2646000</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.17045454545454544</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>3600</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>3207600</v>
+        <v>2617800</v>
       </c>
       <c r="B50">
-        <v>3223200</v>
+        <v>2610600</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>-0.4863449307893753</v>
+        <v>0.275040110016044</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>-15600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2788200</v>
+        <v>3971400</v>
       </c>
       <c r="B51">
-        <v>2604600</v>
+        <v>3946200</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>6.5848934796643004</v>
+        <v>0.63453693911466991</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>183600</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>3763200</v>
+        <v>4128600</v>
       </c>
       <c r="B52">
-        <v>3231600</v>
+        <v>4110600</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>14.126275510204081</v>
+        <v>0.43598314198517663</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>531600</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>3744000</v>
+        <v>2688000</v>
       </c>
       <c r="B53">
-        <v>3700800</v>
+        <v>2670000</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>1.153846153846154</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>43200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2279400</v>
+        <v>3115200</v>
       </c>
       <c r="B54">
-        <v>1961400</v>
+        <v>3111600</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>13.951039747301921</v>
+        <v>0.11556240369799693</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>318000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>3146400</v>
+        <v>2941800</v>
       </c>
       <c r="B55">
-        <v>2352000</v>
+        <v>2941800</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>25.247902364607171</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>794400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>3580200</v>
+        <v>2604600</v>
       </c>
       <c r="B56">
-        <v>3367800</v>
+        <v>2579400</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>5.9326294620412261</v>
+        <v>0.96751900483759512</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>212400</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>3349200</v>
+        <v>3774600</v>
       </c>
       <c r="B57">
-        <v>3649200</v>
+        <v>3760200</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>-8.9573629523468288</v>
+        <v>0.38149737720553167</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>-300000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2427600</v>
+        <v>3208800</v>
       </c>
       <c r="B58">
-        <v>2041200</v>
+        <v>3154800</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>15.916955017301039</v>
+        <v>1.6828721017202692</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>386400</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>2113200</v>
+        <v>3267000</v>
       </c>
       <c r="B59">
-        <v>1999200</v>
+        <v>3249000</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>5.3946621237932995</v>
+        <v>0.55096418732782371</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>114000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>2536800</v>
+        <v>3774000</v>
       </c>
       <c r="B60">
-        <v>2468400</v>
+        <v>3752400</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>2.6963103122043521</v>
+        <v>0.57233704292527821</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>68400</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2194200</v>
+        <v>2353800</v>
       </c>
       <c r="B61">
-        <v>2194200</v>
+        <v>2353800</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -3112,58 +4763,58 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>2703600</v>
+        <v>2265600</v>
       </c>
       <c r="B62">
-        <v>2698800</v>
+        <v>2258400</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.17754105636928538</v>
+        <v>0.31779661016949157</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>2865000</v>
+        <v>2862600</v>
       </c>
       <c r="B63">
-        <v>2742600</v>
+        <v>2862600</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>4.2722513089005236</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>122400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>3151200</v>
+        <v>3091200</v>
       </c>
       <c r="B64">
-        <v>3140400</v>
+        <v>1724400</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.3427265803503427</v>
+        <v>44.215838509316768</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>1366800</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1779600</v>
+        <v>3118200</v>
       </c>
       <c r="B65">
-        <v>1779600</v>
+        <v>3118200</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -3176,250 +4827,250 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>3466200</v>
+        <v>3864000</v>
       </c>
       <c r="B66">
-        <v>3351000</v>
+        <v>3835200</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>3.3235243205816167</v>
+        <v>0.74534161490683226</v>
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>115200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>3867000</v>
+        <v>2479800</v>
       </c>
       <c r="B67">
-        <v>2760600</v>
+        <v>2379000</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" si="3">D67/A67*100</f>
-        <v>28.611326609775016</v>
+        <v>4.064843939027341</v>
       </c>
       <c r="D67">
         <f t="shared" si="2"/>
-        <v>1106400</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>3177000</v>
+        <v>3101400</v>
       </c>
       <c r="B68">
-        <v>3148200</v>
+        <v>3083400</v>
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>0.90651558073654381</v>
+        <v>0.5803830528148578</v>
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
-        <v>28800</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2754000</v>
+        <v>3685800</v>
       </c>
       <c r="B69">
-        <v>2710800</v>
+        <v>3653400</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>1.5686274509803921</v>
+        <v>0.87904932443431549</v>
       </c>
       <c r="D69">
         <f t="shared" si="2"/>
-        <v>43200</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>4143000</v>
+        <v>3853200</v>
       </c>
       <c r="B70">
-        <v>3180600</v>
+        <v>3824400</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>23.229543808834176</v>
+        <v>0.74743070694487701</v>
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
-        <v>962400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1126800</v>
+        <v>3849600</v>
       </c>
       <c r="B71">
-        <v>1116000</v>
+        <v>3397200</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>0.95846645367412142</v>
+        <v>11.751870324189525</v>
       </c>
       <c r="D71">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>452400</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>3465600</v>
+        <v>1525200</v>
       </c>
       <c r="B72">
-        <v>2666400</v>
+        <v>1525200</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>23.060941828254848</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <f t="shared" si="2"/>
-        <v>799200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2490600</v>
+        <v>3580800</v>
       </c>
       <c r="B73">
-        <v>1830600</v>
+        <v>3555600</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>26.499638641291256</v>
+        <v>0.70375335120643434</v>
       </c>
       <c r="D73">
         <f t="shared" si="2"/>
-        <v>660000</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1361400</v>
+        <v>3733200</v>
       </c>
       <c r="B74">
-        <v>1361400</v>
+        <v>3722400</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28929604628736744</v>
       </c>
       <c r="D74">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1786800</v>
+        <v>4098000</v>
       </c>
       <c r="B75">
-        <v>1779600</v>
+        <v>4094400</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>0.40295500335795831</v>
+        <v>8.7847730600292828E-2</v>
       </c>
       <c r="D75">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>3775800</v>
+        <v>3259200</v>
       </c>
       <c r="B76">
-        <v>2884200</v>
+        <v>3244800</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>23.61353885269347</v>
+        <v>0.4418262150220913</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:D101" si="4">A76-B76</f>
-        <v>891600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>3170400</v>
+        <v>3375600</v>
       </c>
       <c r="B77">
-        <v>3130800</v>
+        <v>3346800</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>1.2490537471612415</v>
+        <v>0.85318165659438328</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>39600</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>3161400</v>
+        <v>3372600</v>
       </c>
       <c r="B78">
-        <v>2989800</v>
+        <v>3347400</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>5.4279749478079333</v>
+        <v>0.74719800747198006</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
-        <v>171600</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>3364800</v>
+        <v>3735000</v>
       </c>
       <c r="B79">
-        <v>2438400</v>
+        <v>3695400</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>27.532097004279599</v>
+        <v>1.0602409638554215</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
-        <v>926400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2851800</v>
+        <v>3838200</v>
       </c>
       <c r="B80">
-        <v>2686200</v>
+        <v>3823800</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>5.8068588260046283</v>
+        <v>0.3751758636861029</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
-        <v>165600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2904000</v>
+        <v>3767400</v>
       </c>
       <c r="B81">
-        <v>2904000</v>
+        <v>3767400</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
@@ -3432,190 +5083,190 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2403600</v>
+        <v>4019400</v>
       </c>
       <c r="B82">
-        <v>2367600</v>
+        <v>3990600</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>1.4977533699450822</v>
+        <v>0.71652485445588887</v>
       </c>
       <c r="D82">
         <f t="shared" si="4"/>
-        <v>36000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2027400</v>
+        <v>3229200</v>
       </c>
       <c r="B83">
-        <v>1966200</v>
+        <v>3218400</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>3.0186445693992305</v>
+        <v>0.33444816053511706</v>
       </c>
       <c r="D83">
         <f t="shared" si="4"/>
-        <v>61200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>803400</v>
+        <v>932400</v>
       </c>
       <c r="B84">
-        <v>803400</v>
+        <v>921600</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1583011583011582</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>3961200</v>
+        <v>3390000</v>
       </c>
       <c r="B85">
-        <v>3543600</v>
+        <v>3379200</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>10.542259921235988</v>
+        <v>0.31858407079646017</v>
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
-        <v>417600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>3111600</v>
+        <v>3689400</v>
       </c>
       <c r="B86">
-        <v>2978400</v>
+        <v>3678600</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>4.2807558812186652</v>
+        <v>0.29273052528866483</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
-        <v>133200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2907000</v>
+        <v>3394200</v>
       </c>
       <c r="B87">
-        <v>3095400</v>
+        <v>3387000</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>-6.480908152734778</v>
+        <v>0.21212656885274883</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
-        <v>-188400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2871000</v>
+        <v>4012200</v>
       </c>
       <c r="B88">
-        <v>2781000</v>
+        <v>4001400</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>3.1347962382445136</v>
+        <v>0.26917900403768508</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
-        <v>90000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2572200</v>
+        <v>3131400</v>
       </c>
       <c r="B89">
-        <v>2431800</v>
+        <v>3109800</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>5.4583624912526236</v>
+        <v>0.6897873155776969</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
-        <v>140400</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>3198000</v>
+        <v>4088400</v>
       </c>
       <c r="B90">
-        <v>3225600</v>
+        <v>4063200</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>-0.86303939962476561</v>
+        <v>0.61637804520105666</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
-        <v>-27600</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>3117600</v>
+        <v>4421400</v>
       </c>
       <c r="B91">
-        <v>3038400</v>
+        <v>4410600</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>2.5404157043879905</v>
+        <v>0.24426652191613515</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
-        <v>79200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>3057600</v>
+        <v>2620200</v>
       </c>
       <c r="B92">
-        <v>2953200</v>
+        <v>2616600</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>3.4144427001569859</v>
+        <v>0.13739409205404168</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
-        <v>104400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>3245400</v>
+        <v>2979600</v>
       </c>
       <c r="B93">
-        <v>3205800</v>
+        <v>2940000</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>1.2201885745978924</v>
+        <v>1.3290374546919048</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
@@ -3624,130 +5275,1774 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>3165000</v>
+        <v>1839600</v>
       </c>
       <c r="B94">
-        <v>2743800</v>
+        <v>1836000</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>13.308056872037916</v>
+        <v>0.19569471624266144</v>
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
-        <v>421200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>3281400</v>
+        <v>3181800</v>
       </c>
       <c r="B95">
-        <v>3205800</v>
+        <v>3145800</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>2.303894679100384</v>
+        <v>1.1314350367716388</v>
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>75600</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2401800</v>
+        <v>1423200</v>
       </c>
       <c r="B96">
-        <v>2226600</v>
+        <v>1419600</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>7.2945291031726196</v>
+        <v>0.25295109612141653</v>
       </c>
       <c r="D96">
         <f t="shared" si="4"/>
-        <v>175200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>3091200</v>
+        <v>2433600</v>
       </c>
       <c r="B97">
-        <v>3069600</v>
+        <v>2026800</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>0.69875776397515532</v>
+        <v>16.715976331360945</v>
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
-        <v>21600</v>
+        <v>406800</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>2368800</v>
+        <v>2902200</v>
       </c>
       <c r="B98">
-        <v>1622400</v>
+        <v>2895000</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>31.509625126646402</v>
+        <v>0.24808765763903248</v>
       </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>746400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>3099000</v>
+        <v>3867000</v>
       </c>
       <c r="B99">
-        <v>3281400</v>
+        <v>3867000</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>-5.8857696030977733</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <f t="shared" si="4"/>
-        <v>-182400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>3263400</v>
+        <v>2740800</v>
       </c>
       <c r="B100">
-        <v>3263400</v>
+        <v>2422800</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.602451838879158</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>318000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>1030800</v>
+        <v>2712600</v>
       </c>
       <c r="B101">
-        <v>1030800</v>
+        <v>2709000</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.13271400132714001</v>
       </c>
       <c r="D101">
         <f t="shared" si="4"/>
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A752AC2-2378-4CE0-AA60-1BA94686678E}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2424600</v>
+      </c>
+      <c r="B2">
+        <v>2410200</v>
+      </c>
+      <c r="C2">
+        <f>D2/A2*100</f>
+        <v>0.59391239792130657</v>
+      </c>
+      <c r="D2">
+        <f>A2-B2</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3041400</v>
+      </c>
+      <c r="B3">
+        <v>2857800</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">D3/A3*100</f>
+        <v>6.036693627934504</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">A3-B3</f>
+        <v>183600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2307000</v>
+      </c>
+      <c r="B4">
+        <v>3079800</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-33.49804941482445</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-772800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4048200</v>
+      </c>
+      <c r="B5">
+        <v>6465000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-59.700607677486296</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-2416800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2568600</v>
+      </c>
+      <c r="B6">
+        <v>2550600</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.70077084793272593</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2751000</v>
+      </c>
+      <c r="B7">
+        <v>2718600</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.1777535441657578</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>4212000</v>
+      </c>
+      <c r="B8">
+        <v>4626000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-9.8290598290598297</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-414000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2697600</v>
+      </c>
+      <c r="B9">
+        <v>3260400</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-20.862989323843419</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-562800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2188200</v>
+      </c>
+      <c r="B10">
+        <v>2163000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.1516314779270633</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1557600</v>
+      </c>
+      <c r="B11">
+        <v>1546800</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.69337442218798151</v>
+      </c>
+      <c r="D11">
+        <f>A11-B11</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3145200</v>
+      </c>
+      <c r="B12">
+        <v>3103200</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.3353681800839374</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D75" si="2">A12-B12</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2761200</v>
+      </c>
+      <c r="B13">
+        <v>2761200</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3473400</v>
+      </c>
+      <c r="B14">
+        <v>2559000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>26.325790291932975</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>914400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2545200</v>
+      </c>
+      <c r="B15">
+        <v>2305200</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>9.4295143800094294</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3148800</v>
+      </c>
+      <c r="B16">
+        <v>5505600</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-74.847560975609767</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>-2356800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3132000</v>
+      </c>
+      <c r="B17">
+        <v>2532000</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>19.157088122605366</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2353800</v>
+      </c>
+      <c r="B18">
+        <v>2346600</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.30588835075197557</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1624800</v>
+      </c>
+      <c r="B19">
+        <v>1232400</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>24.150664697193498</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>392400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3845400</v>
+      </c>
+      <c r="B20">
+        <v>6899400</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-79.419566234982057</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>-3054000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2802600</v>
+      </c>
+      <c r="B21">
+        <v>2184600</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>22.050952686790836</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>618000</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(C2:C101)</f>
+        <v>-16.522617017175218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4339800</v>
+      </c>
+      <c r="B22">
+        <v>7605000</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-75.238490253007058</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>-3265200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>3259800</v>
+      </c>
+      <c r="B23">
+        <v>3058200</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6.184428492545555</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>201600</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>4323000</v>
+      </c>
+      <c r="B24">
+        <v>5190600</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-20.06939625260236</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>-867600</v>
+      </c>
+      <c r="G24">
+        <f>SUM(D2:D101)</f>
+        <v>-61339200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2335800</v>
+      </c>
+      <c r="B25">
+        <v>2116200</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>9.4014898535833549</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>219600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>3918600</v>
+      </c>
+      <c r="B26">
+        <v>3553800</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>9.3094472515694395</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>364800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>4024800</v>
+      </c>
+      <c r="B27">
+        <v>5280000</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-31.186642814549792</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>-1255200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>3195600</v>
+      </c>
+      <c r="B28">
+        <v>2617200</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>18.099887345099511</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>578400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2995800</v>
+      </c>
+      <c r="B29">
+        <v>3257400</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-8.732225115161226</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>-261600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2085000</v>
+      </c>
+      <c r="B30">
+        <v>2085000</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1170600</v>
+      </c>
+      <c r="B31">
+        <v>1170600</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>3785400</v>
+      </c>
+      <c r="B32">
+        <v>4449000</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-17.530511967031227</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>-663600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3469800</v>
+      </c>
+      <c r="B33">
+        <v>2919000</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>15.874113781774165</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>550800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>3018000</v>
+      </c>
+      <c r="B34">
+        <v>2776800</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>7.9920477137176942</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>241200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2827800</v>
+      </c>
+      <c r="B35">
+        <v>2817000</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.38192234245703371</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2772600</v>
+      </c>
+      <c r="B36">
+        <v>2686200</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3.1162086128543605</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>3315600</v>
+      </c>
+      <c r="B37">
+        <v>3211200</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3.1487513572204127</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>104400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>3109800</v>
+      </c>
+      <c r="B38">
+        <v>2979000</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4.2060582674126952</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>130800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>679800</v>
+      </c>
+      <c r="B39">
+        <v>679800</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>3681000</v>
+      </c>
+      <c r="B40">
+        <v>6583800</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-78.85900570497148</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>-2902800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>3024000</v>
+      </c>
+      <c r="B41">
+        <v>4394400</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-45.317460317460316</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>-1370400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>3479400</v>
+      </c>
+      <c r="B42">
+        <v>4895400</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-40.69667183997241</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>-1416000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>3100800</v>
+      </c>
+      <c r="B43">
+        <v>2982000</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3.8312693498452011</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>3903000</v>
+      </c>
+      <c r="B44">
+        <v>5224200</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>-33.850883935434283</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>-1321200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>2739000</v>
+      </c>
+      <c r="B45">
+        <v>3088200</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>-12.749178532311062</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>-349200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>3798600</v>
+      </c>
+      <c r="B46">
+        <v>3210600</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>15.479387142631495</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>588000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>3930000</v>
+      </c>
+      <c r="B47">
+        <v>7136400</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-81.587786259541986</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>-3206400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>2805600</v>
+      </c>
+      <c r="B48">
+        <v>2983200</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>-6.3301967493584259</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>-177600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>3289800</v>
+      </c>
+      <c r="B49">
+        <v>6414600</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>-94.984497537844248</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>-3124800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>3010200</v>
+      </c>
+      <c r="B50">
+        <v>2877000</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>4.4249551524815622</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>133200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>1621200</v>
+      </c>
+      <c r="B51">
+        <v>1585200</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>2.2205773501110291</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>3090000</v>
+      </c>
+      <c r="B52">
+        <v>4822800</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>-56.077669902912618</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>-1732800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>2495400</v>
+      </c>
+      <c r="B53">
+        <v>2233800</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>10.483289252224093</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>261600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>3430200</v>
+      </c>
+      <c r="B54">
+        <v>6245400</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>-82.071016267273052</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>-2815200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>1352400</v>
+      </c>
+      <c r="B55">
+        <v>1352400</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>925200</v>
+      </c>
+      <c r="B56">
+        <v>925200</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>4385400</v>
+      </c>
+      <c r="B57">
+        <v>7577400</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>-72.786974962375155</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>-3192000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>2048400</v>
+      </c>
+      <c r="B58">
+        <v>1966800</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>3.9835969537199762</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>3658200</v>
+      </c>
+      <c r="B59">
+        <v>7837800</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>-114.25291126783664</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>-4179600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>374400</v>
+      </c>
+      <c r="B60">
+        <v>374400</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>2914800</v>
+      </c>
+      <c r="B61">
+        <v>2842800</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>2.470152326060107</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>2166600</v>
+      </c>
+      <c r="B62">
+        <v>2653800</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>-22.486845749099974</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>-487200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>3474000</v>
+      </c>
+      <c r="B63">
+        <v>2493600</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>28.221070811744386</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>980400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>3411000</v>
+      </c>
+      <c r="B64">
+        <v>4667400</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>-36.833773087071243</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>-1256400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>3625200</v>
+      </c>
+      <c r="B65">
+        <v>4023600</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>-10.989738497186362</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>-398400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>3689400</v>
+      </c>
+      <c r="B66">
+        <v>5241000</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>-42.055618799804847</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>-1551600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>4068000</v>
+      </c>
+      <c r="B67">
+        <v>4003200</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="3">D67/A67*100</f>
+        <v>1.5929203539823009</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>4440600</v>
+      </c>
+      <c r="B68">
+        <v>7195800</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>-62.045669504121058</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>-2755200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>3183000</v>
+      </c>
+      <c r="B69">
+        <v>7239000</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>-127.42695570216777</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>-4056000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>4247400</v>
+      </c>
+      <c r="B70">
+        <v>3597000</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>15.312897301878797</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>650400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>3099600</v>
+      </c>
+      <c r="B71">
+        <v>4831200</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>-55.865272938443667</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>-1731600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>3246600</v>
+      </c>
+      <c r="B72">
+        <v>4516200</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>-39.105525780816855</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>-1269600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>2938800</v>
+      </c>
+      <c r="B73">
+        <v>3277200</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>-11.514904042466313</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>-338400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>4105800</v>
+      </c>
+      <c r="B74">
+        <v>6293400</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>-53.280724828291682</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>-2187600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>3523200</v>
+      </c>
+      <c r="B75">
+        <v>6444000</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>-82.901907356948229</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>-2920800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>2760000</v>
+      </c>
+      <c r="B76">
+        <v>2688000</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>2.6086956521739131</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:D101" si="4">A76-B76</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>241800</v>
+      </c>
+      <c r="B77">
+        <v>241800</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>3082800</v>
+      </c>
+      <c r="B78">
+        <v>2602800</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>15.570260801868432</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>3304800</v>
+      </c>
+      <c r="B79">
+        <v>4162800</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>-25.96223674655047</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>-858000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>3553800</v>
+      </c>
+      <c r="B80">
+        <v>3223800</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>9.2858348809724802</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>3004200</v>
+      </c>
+      <c r="B81">
+        <v>2466600</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>17.894947074096265</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>537600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>2884200</v>
+      </c>
+      <c r="B82">
+        <v>2413800</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>16.3095485749948</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>470400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>3381000</v>
+      </c>
+      <c r="B83">
+        <v>2969400</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>12.173913043478262</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>411600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>4274400</v>
+      </c>
+      <c r="B84">
+        <v>3688800</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>13.700168444693992</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>585600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>4009800</v>
+      </c>
+      <c r="B85">
+        <v>3498600</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>12.74876552446506</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>511200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>3221400</v>
+      </c>
+      <c r="B86">
+        <v>6382200</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>-98.118830322220148</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>-3160800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>1025400</v>
+      </c>
+      <c r="B87">
+        <v>1025400</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>3109200</v>
+      </c>
+      <c r="B88">
+        <v>3048000</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>1.9683519876495561</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>3306000</v>
+      </c>
+      <c r="B89">
+        <v>4824000</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>-45.916515426497277</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>-1518000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>3206400</v>
+      </c>
+      <c r="B90">
+        <v>3888000</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>-21.257485029940121</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>-681600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>781800</v>
+      </c>
+      <c r="B91">
+        <v>781800</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>3997200</v>
+      </c>
+      <c r="B92">
+        <v>3121200</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>21.91534073851696</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>876000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>2066400</v>
+      </c>
+      <c r="B93">
+        <v>2034000</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>1.5679442508710801</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>3351600</v>
+      </c>
+      <c r="B94">
+        <v>3229200</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>3.6519871106337276</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>3456600</v>
+      </c>
+      <c r="B95">
+        <v>4507800</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>-30.411386911994448</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>-1051200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>1681200</v>
+      </c>
+      <c r="B96">
+        <v>1648800</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>1.9271948608137044</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>2948400</v>
+      </c>
+      <c r="B97">
+        <v>2847600</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>3.4188034188034191</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>4152600</v>
+      </c>
+      <c r="B98">
+        <v>5783400</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>-39.271781534460338</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>-1630800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>4001400</v>
+      </c>
+      <c r="B99">
+        <v>7277400</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>-81.871345029239762</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>-3276000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>1948200</v>
+      </c>
+      <c r="B100">
+        <v>1439400</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>26.116415152448415</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>508800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>4131600</v>
+      </c>
+      <c r="B101">
+        <v>6369600</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>-54.167876851582918</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>-2238000</v>
       </c>
     </row>
   </sheetData>
@@ -3757,6 +7052,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024568D4FFC20DF4EA5C2E946D590E91F" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39ef05a86ee1af98686b93a314977c5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eb1d7a86-956c-475f-855d-08e685e1f8e0" xmlns:ns4="b7f5b7be-79a7-48f5-8004-2a6d38913cd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ec56a9de2be184e712bf27f24849eba" ns3:_="" ns4:_="">
     <xsd:import namespace="eb1d7a86-956c-475f-855d-08e685e1f8e0"/>
@@ -4009,15 +7313,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4027,6 +7322,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE7DB8A-6C0C-46E2-8A3A-718AA56BD213}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75ECD96F-7E09-4BE4-B6C6-9F2C4A5AE92B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4041,14 +7344,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE7DB8A-6C0C-46E2-8A3A-718AA56BD213}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
